--- a/figures/source/wald-pitch-space.xlsx
+++ b/figures/source/wald-pitch-space.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$1:$O$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$1:$P$89</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>A</t>
   </si>
@@ -118,13 +118,34 @@
   </si>
   <si>
     <t>https://forums.adobe.com/thread/735235</t>
+  </si>
+  <si>
+    <t>C2-B2</t>
+  </si>
+  <si>
+    <t>C6-B6</t>
+  </si>
+  <si>
+    <t>C5-B5</t>
+  </si>
+  <si>
+    <t>C4-B4</t>
+  </si>
+  <si>
+    <t>C3-B3</t>
+  </si>
+  <si>
+    <t>C7-C8</t>
+  </si>
+  <si>
+    <t>A0-B1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,18 +175,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="7">
@@ -206,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,8 +239,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,8 +353,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -323,10 +379,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -375,6 +437,14 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -423,6 +493,14 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,1361 +833,1472 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="8" customWidth="1"/>
-    <col min="4" max="15" width="27.875" customWidth="1"/>
-    <col min="16" max="16" width="37.875" customWidth="1"/>
-    <col min="17" max="17" width="39.375" customWidth="1"/>
+    <col min="3" max="4" width="4.5" style="10" customWidth="1"/>
+    <col min="5" max="16" width="27.875" customWidth="1"/>
+    <col min="17" max="17" width="37.875" customWidth="1"/>
+    <col min="18" max="18" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1">
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:23" s="9" customFormat="1" ht="35" customHeight="1">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="str">
         <f>CONCATENATE(A2,B2)</f>
         <v>C8</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" ref="C3:C66" si="0">CONCATENATE(A3,B3)</f>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE(A3,B3)</f>
         <v>B7</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A7</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab7</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>G7</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Gb7</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>F7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>E7</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Eb7</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>D7</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Db7</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>C7</v>
       </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>B6</v>
       </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="11"/>
+      <c r="D16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb6</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="H16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="str">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A6</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="H17" s="7"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="str">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab6</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="H18" s="5"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>G6</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="H19" s="7"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Gb6</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="H20" s="5"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>F6</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="H21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>E6</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="K22" s="5"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="H22" s="7"/>
+      <c r="L22" s="5"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="11"/>
+      <c r="D23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Eb6</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="H23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="11"/>
+      <c r="D24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>D6</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="K24" s="5"/>
-      <c r="O24" s="7"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="H24" s="7"/>
+      <c r="L24" s="5"/>
+      <c r="P24" s="7"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="11"/>
+      <c r="D25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Db6</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="H25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="11"/>
+      <c r="D26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>C6</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="K26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="H26" s="7"/>
+      <c r="L26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>B5</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="H27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="11"/>
+      <c r="D28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb5</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="H28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="P28" s="5"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="11"/>
+      <c r="D29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A5</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="K29" s="5"/>
-      <c r="O29" s="7"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="H29" s="7"/>
+      <c r="L29" s="5"/>
+      <c r="P29" s="7"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab5</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="K30" s="7"/>
-      <c r="O30" s="5"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="H30" s="5"/>
+      <c r="L30" s="7"/>
+      <c r="P30" s="5"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="11"/>
+      <c r="D31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>G5</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="K31" s="5"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="H31" s="7"/>
+      <c r="L31" s="5"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="11"/>
+      <c r="D32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Gb5</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="K32" s="7"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="H32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="11"/>
+      <c r="D33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>F5</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="K33" s="5"/>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="H33" s="7"/>
+      <c r="L33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="8" t="str">
+      <c r="C34" s="11"/>
+      <c r="D34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>E5</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="K34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="H34" s="5"/>
+      <c r="L34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="8" t="str">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Eb5</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="K35" s="5"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="H35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="8" t="str">
+      <c r="C36" s="11"/>
+      <c r="D36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>D5</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="K36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="H36" s="5"/>
+      <c r="L36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="8" t="str">
+      <c r="C37" s="11"/>
+      <c r="D37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Db5</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="H37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="8" t="str">
+      <c r="C38" s="11"/>
+      <c r="D38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>C5</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="H38" s="7"/>
+      <c r="L38" s="5"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="8" t="str">
+      <c r="C39" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>B4</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="K39" s="7"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="H39" s="5"/>
+      <c r="L39" s="7"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" s="8" t="str">
+      <c r="C40" s="11"/>
+      <c r="D40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb4</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="5"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="H40" s="7"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="5"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="11"/>
+      <c r="D41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A4</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="5"/>
-      <c r="K41" s="7"/>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="L41" s="7"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" ht="16" customHeight="1">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="8" t="str">
+      <c r="C42" s="11"/>
+      <c r="D42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab4</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="G42" s="7"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="5"/>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="F42" s="2"/>
+      <c r="H42" s="7"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="8" t="str">
+      <c r="C43" s="11"/>
+      <c r="D43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>G4</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="2"/>
-      <c r="K43" s="7"/>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="7"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="8" t="str">
+      <c r="C44" s="11"/>
+      <c r="D44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Gb4</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="G44" s="7"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="5"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="F44" s="2"/>
+      <c r="H44" s="7"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="8" t="str">
+      <c r="C45" s="11"/>
+      <c r="D45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>F4</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="5"/>
-      <c r="I45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="2"/>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="7"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="5"/>
+      <c r="J45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="2"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="11"/>
+      <c r="D46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>E4</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="F46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="11"/>
+      <c r="D47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Eb4</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="G47" s="7"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="5"/>
-      <c r="M47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="F47" s="2"/>
+      <c r="H47" s="7"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="11"/>
+      <c r="D48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>D4</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="2"/>
-      <c r="K48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="5"/>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="L48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="5"/>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
-      <c r="C49" s="8" t="str">
+      <c r="C49" s="11"/>
+      <c r="D49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Db4</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="G49" s="7"/>
-      <c r="I49" s="2"/>
-      <c r="K49" s="5"/>
-      <c r="M49" s="2"/>
-      <c r="O49" s="7"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="F49" s="2"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="2"/>
+      <c r="L49" s="5"/>
+      <c r="N49" s="2"/>
+      <c r="P49" s="7"/>
+      <c r="R49" s="6"/>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
-      <c r="C50" s="8" t="str">
+      <c r="C50" s="11"/>
+      <c r="D50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>C4</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="K50" s="7"/>
-      <c r="M50" s="2"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="H50" s="5"/>
+      <c r="L50" s="7"/>
+      <c r="N50" s="2"/>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="str">
+      <c r="C51" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>B3</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="K51" s="5"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="H51" s="7"/>
+      <c r="L51" s="5"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="8" t="str">
+      <c r="C52" s="11"/>
+      <c r="D52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb3</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="1"/>
-      <c r="O52" s="7"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="H52" s="5"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="1"/>
+      <c r="P52" s="7"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C53" s="11"/>
+      <c r="D53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A3</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="K53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="H53" s="7"/>
+      <c r="L53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:18" ht="16" customHeight="1">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="8" t="str">
+      <c r="C54" s="11"/>
+      <c r="D54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab3</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="K54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="H54" s="5"/>
+      <c r="L54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" s="8" t="str">
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>G3</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="H55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56" s="8" t="str">
+      <c r="C56" s="11"/>
+      <c r="D56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Gb3</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="K56" s="5"/>
-      <c r="O56" s="7"/>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="H56" s="7"/>
+      <c r="L56" s="5"/>
+      <c r="P56" s="7"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-      <c r="C57" s="8" t="str">
+      <c r="C57" s="11"/>
+      <c r="D57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>F3</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="H57" s="5"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="11"/>
+      <c r="D58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>E3</v>
       </c>
-      <c r="O58" s="7"/>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="P58" s="7"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" s="8" t="str">
+      <c r="C59" s="11"/>
+      <c r="D59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Eb3</v>
       </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="6"/>
+      <c r="P59" s="7"/>
       <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" s="8" t="str">
+      <c r="C60" s="11"/>
+      <c r="D60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>D3</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="6"/>
+      <c r="P60" s="5"/>
       <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="8" t="str">
+      <c r="C61" s="11"/>
+      <c r="D61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Db3</v>
       </c>
-      <c r="O61" s="7"/>
-      <c r="P61" s="6"/>
+      <c r="P61" s="7"/>
       <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="8" t="str">
+      <c r="C62" s="11"/>
+      <c r="D62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="8" t="str">
+      <c r="C63" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>B2</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="8" t="str">
+      <c r="C64" s="11"/>
+      <c r="D64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bb2</v>
       </c>
-      <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" ht="16" customHeight="1">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="11"/>
+      <c r="D65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>A2</v>
       </c>
-      <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" ht="16" customHeight="1">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" s="8" t="str">
+      <c r="C66" s="11"/>
+      <c r="D66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Ab2</v>
       </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="6"/>
+      <c r="P66" s="7"/>
       <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>6</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:C89" si="1">CONCATENATE(A67,B67)</f>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10" t="str">
+        <f t="shared" ref="D67:D89" si="1">CONCATENATE(A67,B67)</f>
         <v>G2</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>10</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="8" t="str">
+      <c r="C68" s="11"/>
+      <c r="D68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Gb2</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" s="8" t="str">
+      <c r="C69" s="11"/>
+      <c r="D69" s="10" t="str">
         <f t="shared" si="1"/>
         <v>F2</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" s="8" t="str">
+      <c r="C70" s="11"/>
+      <c r="D70" s="10" t="str">
         <f t="shared" si="1"/>
         <v>E2</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="8" t="str">
+      <c r="C71" s="11"/>
+      <c r="D71" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Eb2</v>
       </c>
-      <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="11"/>
+      <c r="D72" s="10" t="str">
         <f t="shared" si="1"/>
         <v>D2</v>
       </c>
-      <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="str">
+      <c r="C73" s="11"/>
+      <c r="D73" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Db2</v>
       </c>
-      <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" s="8" t="str">
+      <c r="C74" s="11"/>
+      <c r="D74" s="10" t="str">
         <f t="shared" si="1"/>
         <v>C2</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:18" ht="16" customHeight="1">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="8" t="str">
+      <c r="C75" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="10" t="str">
         <f t="shared" si="1"/>
         <v>B1</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="8" t="str">
+      <c r="C76" s="11"/>
+      <c r="D76" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Bb1</v>
       </c>
-      <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="6"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="8"/>
       <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>0</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="8" t="str">
+      <c r="C77" s="11"/>
+      <c r="D77" s="10" t="str">
         <f t="shared" si="1"/>
         <v>A1</v>
       </c>
-      <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18" ht="16" customHeight="1">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="8" t="str">
+      <c r="C78" s="11"/>
+      <c r="D78" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Ab1</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="P78" s="6"/>
+      <c r="H78" s="5"/>
       <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="8" t="str">
+      <c r="C79" s="11"/>
+      <c r="D79" s="10" t="str">
         <f t="shared" si="1"/>
         <v>G1</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="8" t="str">
+      <c r="C80" s="11"/>
+      <c r="D80" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Gb1</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="8" t="str">
+      <c r="C81" s="11"/>
+      <c r="D81" s="10" t="str">
         <f t="shared" si="1"/>
         <v>F1</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>4</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="11"/>
+      <c r="D82" s="10" t="str">
         <f t="shared" si="1"/>
         <v>E1</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="8" t="str">
+      <c r="C83" s="11"/>
+      <c r="D83" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Eb1</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="8" t="str">
+      <c r="C84" s="11"/>
+      <c r="D84" s="10" t="str">
         <f t="shared" si="1"/>
         <v>D1</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="8" t="str">
+      <c r="C85" s="11"/>
+      <c r="D85" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Db1</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="8" t="str">
+      <c r="C86" s="11"/>
+      <c r="D86" s="10" t="str">
         <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="8" t="str">
+      <c r="C87" s="11"/>
+      <c r="D87" s="10" t="str">
         <f t="shared" si="1"/>
         <v>B0</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>7</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-      <c r="C88" s="8" t="str">
+      <c r="C88" s="11"/>
+      <c r="D88" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Bb0</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="K88" s="5"/>
-      <c r="O88" s="5"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="H88" s="4"/>
+      <c r="L88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="8" t="str">
+      <c r="C89" s="11"/>
+      <c r="D89" s="10" t="str">
         <f t="shared" si="1"/>
         <v>A0</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="3" scale="41" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <mergeCells count="7">
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="C51:C62"/>
+    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="C75:C89"/>
+    <mergeCell ref="C2:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="3" scale="43" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
